--- a/TemplateExportAnagraficaPerAnno.xlsx
+++ b/TemplateExportAnagraficaPerAnno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99718F-A408-B840-9D0A-FC55505F0417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819551C-4363-6C4D-B9E5-4B304EE4B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1140" windowWidth="27180" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnagraficheComplete" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>2019-20</t>
   </si>
@@ -222,13 +222,46 @@
   </si>
   <si>
     <t>Ritirato in corso d'anno</t>
+  </si>
+  <si>
+    <t>Pulizie</t>
+  </si>
+  <si>
+    <t>Pagamenti</t>
+  </si>
+  <si>
+    <t>Colloquio</t>
+  </si>
+  <si>
+    <t>Intest. Fatture</t>
+  </si>
+  <si>
+    <t>0=le fanno</t>
+  </si>
+  <si>
+    <t>1=le pagano</t>
+  </si>
+  <si>
+    <t>0=ord. Permanente</t>
+  </si>
+  <si>
+    <t>1=bonifico</t>
+  </si>
+  <si>
+    <t>2=contanti/bancomat</t>
+  </si>
+  <si>
+    <t>0=non richiesto</t>
+  </si>
+  <si>
+    <t>1=richiesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,6 +299,18 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -437,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +533,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -948,77 +995,77 @@
       </c>
     </row>
     <row r="2" spans="1:76" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="K2" s="23" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="4"/>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="23" t="s">
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="23" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="29" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="31"/>
-      <c r="BA2" s="26" t="s">
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34"/>
+      <c r="BA2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="28"/>
-      <c r="BF2" s="18" t="s">
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="31"/>
+      <c r="BF2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BM2" s="19" t="s">
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BM2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BR2" s="20" t="s">
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BR2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="22"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="25"/>
     </row>
     <row r="4" spans="1:76" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1117,7 +1164,7 @@
       <c r="AF4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="41" t="s">
+      <c r="AG4" s="18" t="s">
         <v>33</v>
       </c>
       <c r="AH4" s="17" t="s">
@@ -1272,11 +1319,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1317,170 +1362,209 @@
     <col min="36" max="36" width="9.5" customWidth="1"/>
     <col min="38" max="38" width="33.5" customWidth="1"/>
     <col min="39" max="40" width="9.33203125" customWidth="1"/>
+    <col min="41" max="41" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AO1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="O2" s="38" t="s">
+    <row r="2" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="O3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="T2" s="33" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="T3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="AA2" s="34" t="s">
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="AA3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AF3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="40"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:44" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AE5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AF5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AH5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AI5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AK5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AL5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AM5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AN5" s="14" t="s">
         <v>63</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TemplateExportAnagraficaPerAnno.xlsx
+++ b/TemplateExportAnagraficaPerAnno.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819551C-4363-6C4D-B9E5-4B304EE4B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE2B54-DF2B-AD45-8480-383108A04070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1140" windowWidth="27180" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,27 +338,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,9 +469,6 @@
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,54 +476,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,7 +538,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,7 +547,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,13 +568,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,16 +583,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -916,13 +901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX4"/>
+  <dimension ref="A1:BX5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,7 +922,7 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
@@ -965,7 +950,7 @@
     <col min="50" max="50" width="30.6640625" customWidth="1"/>
     <col min="51" max="51" width="11.33203125" customWidth="1"/>
     <col min="52" max="52" width="10.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.5" style="2" customWidth="1"/>
+    <col min="53" max="53" width="10.5" style="1" customWidth="1"/>
     <col min="54" max="54" width="30.5" customWidth="1"/>
     <col min="55" max="55" width="3.6640625" customWidth="1"/>
     <col min="56" max="56" width="10.5" customWidth="1"/>
@@ -976,7 +961,7 @@
     <col min="61" max="61" width="3.5" customWidth="1"/>
     <col min="62" max="62" width="9.5" customWidth="1"/>
     <col min="64" max="64" width="33.5" customWidth="1"/>
-    <col min="65" max="65" width="10.5" style="2" customWidth="1"/>
+    <col min="65" max="65" width="10.5" style="1" customWidth="1"/>
     <col min="66" max="66" width="24.5" customWidth="1"/>
     <col min="67" max="67" width="3.83203125" customWidth="1"/>
     <col min="68" max="68" width="10.6640625" customWidth="1"/>
@@ -989,328 +974,331 @@
     <col min="76" max="76" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:76" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="26" t="s">
+    <row r="2" spans="1:76" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:76" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="K2" s="26" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="4"/>
-      <c r="S2" s="26" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="3"/>
+      <c r="S3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="26" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="32" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="32" t="s">
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34"/>
-      <c r="BA2" s="29" t="s">
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="34"/>
+      <c r="BA3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="31"/>
-      <c r="BF2" s="21" t="s">
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BF3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BM2" s="22" t="s">
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BM3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BR2" s="23" t="s">
+      <c r="BN3" s="22"/>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="22"/>
+      <c r="BR3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="25"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="25"/>
     </row>
-    <row r="4" spans="1:76" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:76" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AR5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AU5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AV5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AW4" s="7" t="s">
+      <c r="AW5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AX5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AY4" s="7" t="s">
+      <c r="AY5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="AZ5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BA5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BB4" s="7" t="s">
+      <c r="BB5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BC5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BD4" s="7" t="s">
+      <c r="BD5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="7" t="s">
+      <c r="BE5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BF4" s="7" t="s">
+      <c r="BF5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="7" t="s">
+      <c r="BG5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BH5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BI4" s="7" t="s">
+      <c r="BI5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BJ4" s="7" t="s">
+      <c r="BJ5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="7" t="s">
+      <c r="BK5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BL4" s="7" t="s">
+      <c r="BL5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BM4" s="10" t="s">
+      <c r="BM5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BN4" s="8" t="s">
+      <c r="BN5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BO4" s="8" t="s">
+      <c r="BO5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BP4" s="8" t="s">
+      <c r="BP5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BQ4" s="8" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BR5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BS4" s="8" t="s">
+      <c r="BS5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BT4" s="8" t="s">
+      <c r="BT5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BU4" s="8" t="s">
+      <c r="BU5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BV4" s="8" t="s">
+      <c r="BV5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BW4" s="8" t="s">
+      <c r="BW5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BX4" s="8" t="s">
+      <c r="BX5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BM2:BP2"/>
-    <mergeCell ref="BR2:BV2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="BF3:BJ3"/>
+    <mergeCell ref="BM3:BP3"/>
+    <mergeCell ref="BR3:BV3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1321,7 +1309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1339,7 +1329,7 @@
     <col min="12" max="12" width="30.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="30.5" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" customWidth="1"/>
     <col min="18" max="18" width="10.5" customWidth="1"/>
@@ -1350,7 +1340,7 @@
     <col min="23" max="23" width="4.6640625" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
     <col min="26" max="26" width="33.5" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="24.5" customWidth="1"/>
     <col min="29" max="29" width="4.6640625" customWidth="1"/>
     <col min="30" max="30" width="10.6640625" customWidth="1"/>
@@ -1367,28 +1357,28 @@
     <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1419,142 +1409,142 @@
       <c r="AH3" s="39"/>
       <c r="AI3" s="39"/>
       <c r="AJ3" s="40"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19" t="s">
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:44" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AD5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AL5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AP5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AR5" s="4" t="s">
         <v>70</v>
       </c>
     </row>

--- a/TemplateExportAnagraficaPerAnno.xlsx
+++ b/TemplateExportAnagraficaPerAnno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE2B54-DF2B-AD45-8480-383108A04070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0242C0C-52B5-0D47-B1CB-EF07C3873B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="27180" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1140" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnagraficheComplete" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>2019-20</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>1=richiesto</t>
+  </si>
+  <si>
+    <t>ANNO PRECEDENTE</t>
+  </si>
+  <si>
+    <t>Classe Anno Precedente</t>
   </si>
 </sst>
 </file>
@@ -467,13 +473,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,7 +526,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,13 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX5"/>
+  <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,53 +945,53 @@
     <col min="30" max="30" width="6.5" customWidth="1"/>
     <col min="31" max="31" width="8" customWidth="1"/>
     <col min="32" max="32" width="9.5" customWidth="1"/>
-    <col min="33" max="39" width="10.83203125" customWidth="1"/>
-    <col min="40" max="40" width="17.5" customWidth="1"/>
-    <col min="41" max="41" width="15.5" customWidth="1"/>
-    <col min="42" max="42" width="19.6640625" customWidth="1"/>
-    <col min="43" max="43" width="20.33203125" customWidth="1"/>
-    <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="12" customWidth="1"/>
-    <col min="46" max="46" width="16.83203125" customWidth="1"/>
-    <col min="47" max="47" width="16.1640625" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" customWidth="1"/>
-    <col min="49" max="49" width="31.83203125" customWidth="1"/>
-    <col min="50" max="50" width="30.6640625" customWidth="1"/>
-    <col min="51" max="51" width="11.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="30.5" customWidth="1"/>
-    <col min="55" max="55" width="3.6640625" customWidth="1"/>
-    <col min="56" max="56" width="10.5" customWidth="1"/>
-    <col min="57" max="57" width="20.5" customWidth="1"/>
-    <col min="58" max="58" width="30.6640625" customWidth="1"/>
-    <col min="59" max="59" width="21.5" customWidth="1"/>
-    <col min="60" max="60" width="6.33203125" customWidth="1"/>
-    <col min="61" max="61" width="3.5" customWidth="1"/>
-    <col min="62" max="62" width="9.5" customWidth="1"/>
-    <col min="64" max="64" width="33.5" customWidth="1"/>
-    <col min="65" max="65" width="10.5" style="1" customWidth="1"/>
-    <col min="66" max="66" width="24.5" customWidth="1"/>
-    <col min="67" max="67" width="3.83203125" customWidth="1"/>
-    <col min="68" max="68" width="10.6640625" customWidth="1"/>
-    <col min="69" max="69" width="20.1640625" customWidth="1"/>
-    <col min="70" max="70" width="30.6640625" customWidth="1"/>
-    <col min="71" max="71" width="21.5" customWidth="1"/>
-    <col min="72" max="72" width="6.33203125" customWidth="1"/>
-    <col min="73" max="73" width="3.5" customWidth="1"/>
-    <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="76" max="76" width="33.5" customWidth="1"/>
+    <col min="33" max="40" width="10.83203125" customWidth="1"/>
+    <col min="41" max="41" width="17.5" customWidth="1"/>
+    <col min="42" max="42" width="15.5" customWidth="1"/>
+    <col min="43" max="43" width="19.6640625" customWidth="1"/>
+    <col min="44" max="44" width="20.33203125" customWidth="1"/>
+    <col min="45" max="45" width="16" customWidth="1"/>
+    <col min="46" max="46" width="12" customWidth="1"/>
+    <col min="47" max="47" width="16.83203125" customWidth="1"/>
+    <col min="48" max="48" width="16.1640625" customWidth="1"/>
+    <col min="49" max="49" width="14.33203125" customWidth="1"/>
+    <col min="50" max="50" width="31.83203125" customWidth="1"/>
+    <col min="51" max="51" width="30.6640625" customWidth="1"/>
+    <col min="52" max="52" width="11.33203125" customWidth="1"/>
+    <col min="53" max="53" width="10.6640625" customWidth="1"/>
+    <col min="54" max="54" width="10.5" style="1" customWidth="1"/>
+    <col min="55" max="55" width="30.5" customWidth="1"/>
+    <col min="56" max="56" width="3.6640625" customWidth="1"/>
+    <col min="57" max="57" width="10.5" customWidth="1"/>
+    <col min="58" max="58" width="20.5" customWidth="1"/>
+    <col min="59" max="59" width="30.6640625" customWidth="1"/>
+    <col min="60" max="60" width="21.5" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" customWidth="1"/>
+    <col min="62" max="62" width="3.5" customWidth="1"/>
+    <col min="63" max="63" width="9.5" customWidth="1"/>
+    <col min="65" max="65" width="33.5" customWidth="1"/>
+    <col min="66" max="66" width="10.5" style="1" customWidth="1"/>
+    <col min="67" max="67" width="24.5" customWidth="1"/>
+    <col min="68" max="68" width="3.83203125" customWidth="1"/>
+    <col min="69" max="69" width="10.6640625" customWidth="1"/>
+    <col min="70" max="70" width="20.1640625" customWidth="1"/>
+    <col min="71" max="71" width="30.6640625" customWidth="1"/>
+    <col min="72" max="72" width="21.5" customWidth="1"/>
+    <col min="73" max="73" width="6.33203125" customWidth="1"/>
+    <col min="74" max="74" width="3.5" customWidth="1"/>
+    <col min="75" max="75" width="9.5" customWidth="1"/>
+    <col min="77" max="77" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:76" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
@@ -1022,40 +1031,43 @@
       <c r="AG3" s="33"/>
       <c r="AH3" s="33"/>
       <c r="AI3" s="34"/>
-      <c r="AJ3" s="32" t="s">
+      <c r="AJ3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="33"/>
       <c r="AL3" s="33"/>
-      <c r="AM3" s="34"/>
-      <c r="BA3" s="29" t="s">
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
+      <c r="BB3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BB3" s="30"/>
       <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BF3" s="21" t="s">
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BG3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG3" s="21"/>
       <c r="BH3" s="21"/>
       <c r="BI3" s="21"/>
       <c r="BJ3" s="21"/>
-      <c r="BM3" s="22" t="s">
+      <c r="BK3" s="21"/>
+      <c r="BN3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BN3" s="22"/>
       <c r="BO3" s="22"/>
       <c r="BP3" s="22"/>
-      <c r="BR3" s="23" t="s">
+      <c r="BQ3" s="22"/>
+      <c r="BS3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BS3" s="24"/>
       <c r="BT3" s="24"/>
       <c r="BU3" s="24"/>
-      <c r="BV3" s="25"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="25"/>
     </row>
-    <row r="5" spans="1:76" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1162,141 +1174,144 @@
         <v>64</v>
       </c>
       <c r="AJ5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AN5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AP5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AR5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AS5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AS5" s="6" t="s">
+      <c r="AT5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AU5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AV5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AV5" s="7" t="s">
+      <c r="AW5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AX5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AX5" s="7" t="s">
+      <c r="AY5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="BA5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BA5" s="8" t="s">
+      <c r="BB5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BB5" s="6" t="s">
+      <c r="BC5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BC5" s="6" t="s">
+      <c r="BD5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BD5" s="6" t="s">
+      <c r="BE5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="6" t="s">
+      <c r="BF5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="6" t="s">
+      <c r="BG5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="6" t="s">
+      <c r="BH5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BH5" s="6" t="s">
+      <c r="BI5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BI5" s="6" t="s">
+      <c r="BJ5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BJ5" s="6" t="s">
+      <c r="BK5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BK5" s="6" t="s">
+      <c r="BL5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BL5" s="6" t="s">
+      <c r="BM5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BM5" s="9" t="s">
+      <c r="BN5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BN5" s="7" t="s">
+      <c r="BO5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BO5" s="7" t="s">
+      <c r="BP5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BP5" s="7" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BQ5" s="7" t="s">
+      <c r="BR5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BR5" s="7" t="s">
+      <c r="BS5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BS5" s="7" t="s">
+      <c r="BT5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BT5" s="7" t="s">
+      <c r="BU5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BU5" s="7" t="s">
+      <c r="BV5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BV5" s="7" t="s">
+      <c r="BW5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BW5" s="7" t="s">
+      <c r="BX5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BX5" s="7" t="s">
+      <c r="BY5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
-    <mergeCell ref="BF3:BJ3"/>
-    <mergeCell ref="BM3:BP3"/>
-    <mergeCell ref="BR3:BV3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BS3:BW3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BB3:BE3"/>
     <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AD3:AI3"/>
     <mergeCell ref="Z3:AC3"/>
   </mergeCells>
@@ -1309,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/TemplateExportAnagraficaPerAnno.xlsx
+++ b/TemplateExportAnagraficaPerAnno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0242C0C-52B5-0D47-B1CB-EF07C3873B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32783BD-3D91-4C4A-90E6-D2E6A11E0B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="500" windowWidth="27180" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnagraficheComplete" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>2019-20</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Classe Anno Precedente</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -529,6 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,8 +604,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -992,80 +1001,80 @@
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:77" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="K3" s="26" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="3"/>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="26" t="s">
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="32" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="32" t="s">
+      <c r="AK3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
-      <c r="BB3" s="29" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
+      <c r="BB3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BG3" s="21" t="s">
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BG3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BN3" s="22" t="s">
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
+      <c r="BN3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22"/>
-      <c r="BS3" s="23" t="s">
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BS3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="26"/>
     </row>
     <row r="5" spans="1:77" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1322,11 +1331,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1347,89 +1354,91 @@
     <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="30.5" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="26" max="26" width="33.5" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="31" max="31" width="20.1640625" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="33" width="21.5" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" customWidth="1"/>
-    <col min="36" max="36" width="9.5" customWidth="1"/>
-    <col min="38" max="38" width="33.5" customWidth="1"/>
-    <col min="39" max="40" width="9.33203125" customWidth="1"/>
-    <col min="41" max="41" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" customWidth="1"/>
+    <col min="25" max="25" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="33.5" customWidth="1"/>
+    <col min="28" max="28" width="10.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" customWidth="1"/>
+    <col min="31" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="20.1640625" customWidth="1"/>
+    <col min="34" max="34" width="30.6640625" customWidth="1"/>
+    <col min="35" max="35" width="21.5" customWidth="1"/>
+    <col min="36" max="36" width="6.33203125" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" customWidth="1"/>
+    <col min="38" max="38" width="9.5" customWidth="1"/>
+    <col min="40" max="40" width="33.5" customWidth="1"/>
+    <col min="41" max="42" width="9.33203125" customWidth="1"/>
+    <col min="43" max="43" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AS1" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AO2" s="18" t="s">
+    <row r="2" spans="1:46" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="O3" s="41" t="s">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="O3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="T3" s="36" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="AA3" s="37" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="AB3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AF3" s="38" t="s">
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="46"/>
+      <c r="AH3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
+      <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18" t="s">
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="41"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1485,90 +1494,96 @@
         <v>17</v>
       </c>
       <c r="S5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="X5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Z5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AB5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AD5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AE5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AF5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AH5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AI5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AK5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AL5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AM5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AN5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AO5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AP5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AS5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AT5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AL3"/>
     <mergeCell ref="O3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
